--- a/zz.不定期檔案備份/jobHopping.xlsx
+++ b/zz.不定期檔案備份/jobHopping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV_RJ\rj_lib_workspace\zz.不定期檔案備份\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>專約</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,23 @@
   </si>
   <si>
     <t>十(經理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否兩年內不參與考績分紅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專約金什麼時候發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸利率離職是否會調整為多少
+原本0.937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤油錢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,15 +293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>201707</xdr:rowOff>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352399</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>68109</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453251</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -301,8 +318,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="4863354"/>
+          <a:off x="369794" y="6858001"/>
           <a:ext cx="9171428" cy="6466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>233115</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>128758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9973235" y="6869206"/>
+          <a:ext cx="8704762" cy="5361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -589,6 +644,7 @@
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="17" max="17" width="33.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -938,7 +994,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22">
+        <f>150*20</f>
+        <v>3000</v>
+      </c>
+      <c r="V22">
+        <f>U22*12</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="23" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="14:22" ht="33" x14ac:dyDescent="0.25">
+      <c r="Q24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N25">
         <f>1224109-60379</f>
         <v>1163730</v>

--- a/zz.不定期檔案備份/jobHopping.xlsx
+++ b/zz.不定期檔案備份/jobHopping.xlsx
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:X25"/>
+  <dimension ref="A5:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,8 @@
         <v>1260000</v>
       </c>
       <c r="X8">
-        <v>116</v>
+        <f>W8+100000</f>
+        <v>1360000</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -838,6 +839,10 @@
         <f t="shared" ref="W9:W10" si="1">V9*R9</f>
         <v>1410000</v>
       </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X10" si="2">W9+100000</f>
+        <v>1510000</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -878,6 +883,10 @@
         <f t="shared" si="1"/>
         <v>1560000</v>
       </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>1660000</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -923,6 +932,10 @@
         <f>V12*R12</f>
         <v>1500000</v>
       </c>
+      <c r="X12">
+        <f>W12+100000</f>
+        <v>1600000</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K13">
@@ -954,6 +967,10 @@
         <f>V13*R13</f>
         <v>1717500</v>
       </c>
+      <c r="X13">
+        <f t="shared" ref="X13:X14" si="3">W13+100000</f>
+        <v>1817500</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K14">
@@ -984,6 +1001,10 @@
       <c r="W14">
         <f>V14*R14</f>
         <v>1792500</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>1892500</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1024,6 +1045,16 @@
       <c r="N25">
         <f>1224109-60379</f>
         <v>1163730</v>
+      </c>
+    </row>
+    <row r="62" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f>703600+308800</f>
+        <v>1012400</v>
+      </c>
+      <c r="L62">
+        <f>24000+4500+107830</f>
+        <v>136330</v>
       </c>
     </row>
   </sheetData>
